--- a/data/glucosidase_inhibition/experimental_data_real.xlsx
+++ b/data/glucosidase_inhibition/experimental_data_real.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxhaussler/Dropbox/master_thesis/masterthesis/data/glucosidase_inhibition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDD290A-4969-2141-9866-633F661CB04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B337888F-8D68-5343-A700-6C582E096DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acarbose" sheetId="8" r:id="rId1"/>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E894CF-F717-5A4A-BB94-B761CC3AC99B}">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3374,6 +3374,9 @@
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>20</v>
+      </c>
       <c r="B22" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -11837,7 +11840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404D3D62-934D-0A40-9978-FA4EE4CBDD69}">
   <dimension ref="A1:AO22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
